--- a/biology/Zoologie/Diplocephalus_lusiscus/Diplocephalus_lusiscus.xlsx
+++ b/biology/Zoologie/Diplocephalus_lusiscus/Diplocephalus_lusiscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplocephalus lusiscus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplocephalus lusiscus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Espagne, en France, en Belgique, en Allemagne et en Suisse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Espagne, en France, en Belgique, en Allemagne et en Suisse.
 Cette araignée cavernicole a été observée en France en Ariège dans les grottes de Gargas et dans les Pyrénées-Atlantiques dans la grotte de Harmoukou, en Belgique dans la province de Liège dans la grotte de Rosée, en Espagne au Guipuscoa dans la cueva de Troskaeta, en Suisse et en Allemagne en Sarre.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Diplocephalus lusiscus mesure 2,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diplocephalus lusiscus mesure 2,25 mm.
 Légendes de la figure ci-contre :
 1. Front de face.
 2. Corselet de profil.
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1872 : Notice sur les arachnides cavernicoles et hypogés. Annales de la Société Entomologique de France, sér. 5, vol. 2, p. 215–244 (texte intégral).</t>
         </is>
